--- a/化石 模型 雕塑 绘画_Steven.xlsx
+++ b/化石 模型 雕塑 绘画_Steven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\套装\AnimalCrossing-Item-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99650C1C-3A26-4FD7-BF34-CA1D71378138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F9B6C-90BF-4BF8-A27C-75767F910C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="4545" windowWidth="16365" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="243">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -261,216 +258,6 @@
     <t>昆虫模型</t>
   </si>
   <si>
-    <t>锯锹形虫模型</t>
-  </si>
-  <si>
-    <t>巨大兜虫模型</t>
-  </si>
-  <si>
-    <t>黄蜂模型</t>
-  </si>
-  <si>
-    <t>蜜蜂模型</t>
-  </si>
-  <si>
-    <t>宝石金龟模型</t>
-  </si>
-  <si>
-    <t>跳蚤模型</t>
-  </si>
-  <si>
-    <t>蚊子模型</t>
-  </si>
-  <si>
-    <t>独角仙模型</t>
-  </si>
-  <si>
-    <t>凤蝶模型</t>
-  </si>
-  <si>
-    <t>油蝉模型</t>
-  </si>
-  <si>
-    <t>红颈凤蝶模型</t>
-  </si>
-  <si>
-    <t>红蜻蜓模型</t>
-  </si>
-  <si>
-    <t>巨大蝴蝶模型</t>
-  </si>
-  <si>
-    <t>水黾模型</t>
-  </si>
-  <si>
-    <t>蚂蚁模型</t>
-  </si>
-  <si>
-    <t>鼠妇模型</t>
-  </si>
-  <si>
-    <t>海蟑螂模型</t>
-  </si>
-  <si>
-    <t>飞蛾模型</t>
-  </si>
-  <si>
-    <t>龙虱模型</t>
-  </si>
-  <si>
-    <t>绿胸晏蜓模型</t>
-  </si>
-  <si>
-    <t>巨大花金龟模型</t>
-  </si>
-  <si>
-    <t>苍蝇模型</t>
-  </si>
-  <si>
-    <t>兰花螳螂模型</t>
-  </si>
-  <si>
-    <t>虎甲虫模型</t>
-  </si>
-  <si>
-    <t>暮蝉模型</t>
-  </si>
-  <si>
-    <t>细身赤锹形虫模型</t>
-  </si>
-  <si>
-    <t>萤火虫模型</t>
-  </si>
-  <si>
-    <t>蜣螂模型</t>
-  </si>
-  <si>
-    <t>稻蝗模型</t>
-  </si>
-  <si>
-    <t>螳螂模型</t>
-  </si>
-  <si>
-    <t>椿象模型</t>
-  </si>
-  <si>
-    <t>星天牛模型</t>
-  </si>
-  <si>
-    <t>乌鸦凤蝶模型</t>
-  </si>
-  <si>
-    <t>蜗牛模型</t>
-  </si>
-  <si>
-    <t>蚱蜢模型</t>
-  </si>
-  <si>
-    <t>雪隐金龟模型</t>
-  </si>
-  <si>
-    <t>高卡萨斯南洋大兜虫模型</t>
-  </si>
-  <si>
-    <t>叶竹节虫模型</t>
-  </si>
-  <si>
-    <t>蟋蟀模型</t>
-  </si>
-  <si>
-    <t>熊蝉模型</t>
-  </si>
-  <si>
-    <t>蜘蛛模型</t>
-  </si>
-  <si>
-    <t>彩袄蛱蝶模型</t>
-  </si>
-  <si>
-    <t>斑透翅蝉模型</t>
-  </si>
-  <si>
-    <t>蓑衣虫模型</t>
-  </si>
-  <si>
-    <t>深山锹形虫模型</t>
-  </si>
-  <si>
-    <t>斑缘点粉蝶模型</t>
-  </si>
-  <si>
-    <t>白粉蝶模型</t>
-  </si>
-  <si>
-    <t>大蓝闪蝶模型</t>
-  </si>
-  <si>
-    <t>竹节虫模型</t>
-  </si>
-  <si>
-    <t>彩虹锹形虫模型</t>
-  </si>
-  <si>
-    <t>蝼蛄模型</t>
-  </si>
-  <si>
-    <t>巨大蜻蜓模型</t>
-  </si>
-  <si>
-    <t>大桦斑蝶模型</t>
-  </si>
-  <si>
-    <t>大锹形虫模型</t>
-  </si>
-  <si>
-    <t>黄金鬼锹形虫模型</t>
-  </si>
-  <si>
-    <t>蝎子模型</t>
-  </si>
-  <si>
-    <t>蝉蜕模型</t>
-  </si>
-  <si>
-    <t>铃虫模型</t>
-  </si>
-  <si>
-    <t>中华剑角蝗模型</t>
-  </si>
-  <si>
-    <t>吉丁虫模型</t>
-  </si>
-  <si>
-    <t>狼蛛模型</t>
-  </si>
-  <si>
-    <t>瓢虫模型</t>
-  </si>
-  <si>
-    <t>飞蝗模型</t>
-  </si>
-  <si>
-    <t>寒蝉模型</t>
-  </si>
-  <si>
-    <t>提琴虫模型</t>
-  </si>
-  <si>
-    <t>寄居蟹模型</t>
-  </si>
-  <si>
-    <t>巨大飞蛾模型</t>
-  </si>
-  <si>
-    <t>象兜虫模型</t>
-  </si>
-  <si>
-    <t>青带凤蝶模型</t>
-  </si>
-  <si>
-    <t>大白斑蝶模型</t>
-  </si>
-  <si>
     <t>大紫蛱蝶模型</t>
   </si>
   <si>
@@ -964,6 +751,9 @@
   </si>
   <si>
     <t>优美的名画（假）</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1081,7 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C305"/>
+      <selection sqref="A1:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1316,10 +1106,10 @@
         <v>6020</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1327,10 +1117,10 @@
         <v>6021</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1338,10 +1128,10 @@
         <v>6022</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1349,10 +1139,10 @@
         <v>6023</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1360,10 +1150,10 @@
         <v>6024</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1371,10 +1161,10 @@
         <v>6025</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1382,10 +1172,10 @@
         <v>6026</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1393,10 +1183,10 @@
         <v>6027</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1404,10 +1194,10 @@
         <v>6028</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1415,10 +1205,10 @@
         <v>6029</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1426,10 +1216,10 @@
         <v>6030</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1437,10 +1227,10 @@
         <v>6031</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1448,10 +1238,10 @@
         <v>6032</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1459,10 +1249,10 @@
         <v>6033</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1470,10 +1260,10 @@
         <v>6034</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1481,10 +1271,10 @@
         <v>6035</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1492,10 +1282,10 @@
         <v>6036</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1503,10 +1293,10 @@
         <v>6037</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1514,10 +1304,10 @@
         <v>6038</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1525,10 +1315,10 @@
         <v>6039</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1536,10 +1326,10 @@
         <v>6040</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1547,10 +1337,10 @@
         <v>6041</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,10 +1348,10 @@
         <v>6042</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1569,10 +1359,10 @@
         <v>6043</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1580,10 +1370,10 @@
         <v>6044</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,10 +1381,10 @@
         <v>6045</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1602,10 +1392,10 @@
         <v>6046</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1613,10 +1403,10 @@
         <v>6047</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1624,10 +1414,10 @@
         <v>6048</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1635,10 +1425,10 @@
         <v>6049</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1646,10 +1436,10 @@
         <v>6050</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1657,10 +1447,10 @@
         <v>6051</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1668,10 +1458,10 @@
         <v>6052</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1679,10 +1469,10 @@
         <v>6053</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1690,10 +1480,10 @@
         <v>6054</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1701,10 +1491,10 @@
         <v>6055</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1712,10 +1502,10 @@
         <v>6056</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1723,10 +1513,10 @@
         <v>6057</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1734,10 +1524,10 @@
         <v>6058</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1745,10 +1535,10 @@
         <v>6059</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1756,10 +1546,10 @@
         <v>6060</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1767,10 +1557,10 @@
         <v>6061</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1778,10 +1568,10 @@
         <v>6062</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1789,10 +1579,10 @@
         <v>6063</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1800,10 +1590,10 @@
         <v>6064</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1811,10 +1601,10 @@
         <v>6065</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1822,10 +1612,10 @@
         <v>6066</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1833,10 +1623,10 @@
         <v>6067</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1844,10 +1634,10 @@
         <v>6068</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1855,10 +1645,10 @@
         <v>6069</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1866,10 +1656,10 @@
         <v>6070</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1877,10 +1667,10 @@
         <v>6071</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1888,10 +1678,10 @@
         <v>6072</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1899,10 +1689,10 @@
         <v>6073</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1910,10 +1700,10 @@
         <v>6074</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1921,10 +1711,10 @@
         <v>6075</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1932,10 +1722,10 @@
         <v>6076</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1943,10 +1733,10 @@
         <v>6077</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1954,10 +1744,10 @@
         <v>6078</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1965,10 +1755,10 @@
         <v>6079</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1976,10 +1766,10 @@
         <v>6080</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1987,10 +1777,10 @@
         <v>6081</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1998,10 +1788,10 @@
         <v>6082</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2009,10 +1799,10 @@
         <v>6083</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2020,10 +1810,10 @@
         <v>6084</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2031,10 +1821,10 @@
         <v>6085</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2042,10 +1832,10 @@
         <v>6086</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2053,10 +1843,10 @@
         <v>6087</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2064,10 +1854,10 @@
         <v>6088</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2075,10 +1865,10 @@
         <v>6089</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2086,10 +1876,10 @@
         <v>6090</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2097,10 +1887,10 @@
         <v>6091</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2108,10 +1898,10 @@
         <v>6092</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2119,780 +1909,780 @@
         <v>6093</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>6094</v>
+        <v>8859</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>6095</v>
+        <v>8861</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>6096</v>
+        <v>8863</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6097</v>
+        <v>8865</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6098</v>
+        <v>8867</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>6099</v>
+        <v>8868</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>6100</v>
+        <v>8870</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6101</v>
+        <v>8872</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6102</v>
+        <v>8874</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6103</v>
+        <v>8875</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6104</v>
+        <v>8876</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6105</v>
+        <v>8878</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6106</v>
+        <v>8879</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6107</v>
+        <v>8880</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6108</v>
+        <v>8881</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6109</v>
+        <v>8882</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>6110</v>
+        <v>8883</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>6111</v>
+        <v>8885</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>6112</v>
+        <v>8887</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>6113</v>
+        <v>8888</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>6114</v>
+        <v>8890</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>6115</v>
+        <v>8892</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>6116</v>
+        <v>8893</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>6117</v>
+        <v>8894</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>6118</v>
+        <v>8896</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>6119</v>
+        <v>8898</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>6120</v>
+        <v>8900</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>6121</v>
+        <v>8902</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>6122</v>
+        <v>8903</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>6123</v>
+        <v>8905</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>6124</v>
+        <v>8907</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>6125</v>
+        <v>8909</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>6126</v>
+        <v>8911</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>6127</v>
+        <v>8913</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>6128</v>
+        <v>8915</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>6129</v>
+        <v>8917</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>6130</v>
+        <v>8918</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>6131</v>
+        <v>8920</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>6132</v>
+        <v>8921</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>6133</v>
+        <v>8923</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>6134</v>
+        <v>8924</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>6135</v>
+        <v>8926</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>6136</v>
+        <v>8927</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>6137</v>
+        <v>8860</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>6138</v>
+        <v>8862</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>6139</v>
+        <v>8864</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>6140</v>
+        <v>8866</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>6141</v>
+        <v>8869</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>6142</v>
+        <v>8871</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>6143</v>
+        <v>8873</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>6144</v>
+        <v>8877</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>6145</v>
+        <v>8884</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>6146</v>
+        <v>8886</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>6147</v>
+        <v>8889</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>6148</v>
+        <v>8891</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>6149</v>
+        <v>8895</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6150</v>
+        <v>8897</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>6151</v>
+        <v>8899</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>6152</v>
+        <v>8901</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>6153</v>
+        <v>8904</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>6154</v>
+        <v>8906</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>6155</v>
+        <v>8908</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>6156</v>
+        <v>8910</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>6157</v>
+        <v>8912</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>6158</v>
+        <v>8914</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>6159</v>
+        <v>8916</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>6160</v>
+        <v>8919</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>6161</v>
+        <v>8922</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>6162</v>
+        <v>8925</v>
       </c>
       <c r="B144" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>6163</v>
+        <v>8928</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2900,10 +2690,10 @@
         <v>6164</v>
       </c>
       <c r="B146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" t="s">
         <v>77</v>
-      </c>
-      <c r="C146" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,10 +2701,10 @@
         <v>6165</v>
       </c>
       <c r="B147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,10 +2712,10 @@
         <v>6166</v>
       </c>
       <c r="B148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2933,10 +2723,10 @@
         <v>6167</v>
       </c>
       <c r="B149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2944,10 +2734,10 @@
         <v>6168</v>
       </c>
       <c r="B150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2955,10 +2745,10 @@
         <v>6169</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,10 +2756,10 @@
         <v>6170</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2977,10 +2767,10 @@
         <v>6171</v>
       </c>
       <c r="B153" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2988,10 +2778,10 @@
         <v>6172</v>
       </c>
       <c r="B154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2999,10 +2789,10 @@
         <v>6173</v>
       </c>
       <c r="B155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3010,10 +2800,10 @@
         <v>6174</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3021,10 +2811,10 @@
         <v>6175</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3032,10 +2822,10 @@
         <v>6176</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3043,10 +2833,10 @@
         <v>6177</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3054,10 +2844,10 @@
         <v>6178</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3065,10 +2855,10 @@
         <v>6179</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3076,10 +2866,10 @@
         <v>6180</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3087,10 +2877,10 @@
         <v>6181</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -3098,10 +2888,10 @@
         <v>6182</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -3109,10 +2899,10 @@
         <v>6183</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C165" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3120,10 +2910,10 @@
         <v>6184</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3131,10 +2921,10 @@
         <v>6185</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3142,10 +2932,10 @@
         <v>6186</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C168" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3153,10 +2943,10 @@
         <v>6187</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3164,10 +2954,10 @@
         <v>6188</v>
       </c>
       <c r="B170" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3175,10 +2965,10 @@
         <v>6189</v>
       </c>
       <c r="B171" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C171" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3186,10 +2976,10 @@
         <v>6190</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C172" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3197,10 +2987,10 @@
         <v>6191</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3208,10 +2998,10 @@
         <v>6192</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3219,10 +3009,10 @@
         <v>6193</v>
       </c>
       <c r="B175" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3230,10 +3020,10 @@
         <v>6194</v>
       </c>
       <c r="B176" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C176" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3241,10 +3031,10 @@
         <v>6195</v>
       </c>
       <c r="B177" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C177" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3252,10 +3042,10 @@
         <v>6196</v>
       </c>
       <c r="B178" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3263,10 +3053,10 @@
         <v>6197</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C179" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3274,10 +3064,10 @@
         <v>6198</v>
       </c>
       <c r="B180" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C180" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3285,10 +3075,10 @@
         <v>6199</v>
       </c>
       <c r="B181" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C181" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3296,10 +3086,10 @@
         <v>6200</v>
       </c>
       <c r="B182" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C182" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3307,10 +3097,10 @@
         <v>6201</v>
       </c>
       <c r="B183" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C183" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3318,10 +3108,10 @@
         <v>6202</v>
       </c>
       <c r="B184" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C184" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3329,10 +3119,10 @@
         <v>6203</v>
       </c>
       <c r="B185" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3340,10 +3130,10 @@
         <v>6204</v>
       </c>
       <c r="B186" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C186" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3351,10 +3141,10 @@
         <v>6205</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C187" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3362,10 +3152,10 @@
         <v>6206</v>
       </c>
       <c r="B188" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C188" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3373,10 +3163,10 @@
         <v>6207</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C189" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3384,10 +3174,10 @@
         <v>6208</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C190" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3395,10 +3185,10 @@
         <v>6209</v>
       </c>
       <c r="B191" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C191" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3406,10 +3196,10 @@
         <v>6210</v>
       </c>
       <c r="B192" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C192" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3417,10 +3207,10 @@
         <v>6211</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C193" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3428,10 +3218,10 @@
         <v>6212</v>
       </c>
       <c r="B194" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C194" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3439,10 +3229,10 @@
         <v>6213</v>
       </c>
       <c r="B195" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C195" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3450,10 +3240,10 @@
         <v>6214</v>
       </c>
       <c r="B196" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C196" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3461,10 +3251,10 @@
         <v>6215</v>
       </c>
       <c r="B197" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C197" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3472,10 +3262,10 @@
         <v>6216</v>
       </c>
       <c r="B198" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C198" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3483,10 +3273,10 @@
         <v>6217</v>
       </c>
       <c r="B199" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C199" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3494,10 +3284,10 @@
         <v>6218</v>
       </c>
       <c r="B200" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C200" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3505,10 +3295,10 @@
         <v>6219</v>
       </c>
       <c r="B201" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C201" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3516,10 +3306,10 @@
         <v>6220</v>
       </c>
       <c r="B202" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C202" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3527,10 +3317,10 @@
         <v>6221</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C203" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3538,10 +3328,10 @@
         <v>6222</v>
       </c>
       <c r="B204" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -3549,10 +3339,10 @@
         <v>6223</v>
       </c>
       <c r="B205" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C205" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3560,10 +3350,10 @@
         <v>6224</v>
       </c>
       <c r="B206" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C206" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -3571,10 +3361,10 @@
         <v>6225</v>
       </c>
       <c r="B207" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C207" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,10 +3372,10 @@
         <v>6226</v>
       </c>
       <c r="B208" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C208" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -3593,10 +3383,10 @@
         <v>6227</v>
       </c>
       <c r="B209" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C209" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -3604,10 +3394,10 @@
         <v>6228</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C210" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -3615,10 +3405,10 @@
         <v>6229</v>
       </c>
       <c r="B211" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -3626,10 +3416,10 @@
         <v>6230</v>
       </c>
       <c r="B212" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C212" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -3637,10 +3427,10 @@
         <v>6231</v>
       </c>
       <c r="B213" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C213" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,10 +3438,10 @@
         <v>6232</v>
       </c>
       <c r="B214" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C214" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -3659,10 +3449,10 @@
         <v>6233</v>
       </c>
       <c r="B215" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C215" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -3670,10 +3460,10 @@
         <v>6234</v>
       </c>
       <c r="B216" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C216" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -3681,10 +3471,10 @@
         <v>6235</v>
       </c>
       <c r="B217" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C217" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -3692,10 +3482,10 @@
         <v>6236</v>
       </c>
       <c r="B218" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C218" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -3703,10 +3493,10 @@
         <v>6237</v>
       </c>
       <c r="B219" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C219" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -3714,10 +3504,10 @@
         <v>6238</v>
       </c>
       <c r="B220" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C220" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -3725,10 +3515,10 @@
         <v>6239</v>
       </c>
       <c r="B221" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -3736,10 +3526,10 @@
         <v>6240</v>
       </c>
       <c r="B222" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C222" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -3747,10 +3537,10 @@
         <v>6241</v>
       </c>
       <c r="B223" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C223" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -3758,10 +3548,10 @@
         <v>6242</v>
       </c>
       <c r="B224" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C224" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -3769,10 +3559,10 @@
         <v>6243</v>
       </c>
       <c r="B225" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C225" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -3780,10 +3570,10 @@
         <v>6244</v>
       </c>
       <c r="B226" t="s">
+        <v>87</v>
+      </c>
+      <c r="C226" t="s">
         <v>158</v>
-      </c>
-      <c r="C226" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -3791,10 +3581,10 @@
         <v>6245</v>
       </c>
       <c r="B227" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C227" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -3802,10 +3592,10 @@
         <v>6246</v>
       </c>
       <c r="B228" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C228" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -3813,10 +3603,10 @@
         <v>6247</v>
       </c>
       <c r="B229" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C229" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -3824,10 +3614,10 @@
         <v>6248</v>
       </c>
       <c r="B230" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C230" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -3835,10 +3625,10 @@
         <v>6249</v>
       </c>
       <c r="B231" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C231" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -3846,10 +3636,10 @@
         <v>6250</v>
       </c>
       <c r="B232" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C232" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -3857,10 +3647,10 @@
         <v>6251</v>
       </c>
       <c r="B233" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C233" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -3868,10 +3658,10 @@
         <v>6252</v>
       </c>
       <c r="B234" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C234" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -3879,10 +3669,10 @@
         <v>6253</v>
       </c>
       <c r="B235" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C235" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3890,10 +3680,10 @@
         <v>8859</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C236" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3901,10 +3691,10 @@
         <v>8860</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C237" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3912,10 +3702,10 @@
         <v>8861</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C238" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3923,10 +3713,10 @@
         <v>8862</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C239" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3934,10 +3724,10 @@
         <v>8863</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C240" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3945,10 +3735,10 @@
         <v>8864</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C241" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3956,10 +3746,10 @@
         <v>8865</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C242" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3967,10 +3757,10 @@
         <v>8866</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C243" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3978,10 +3768,10 @@
         <v>8867</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C244" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3989,10 +3779,10 @@
         <v>8868</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C245" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4000,10 +3790,10 @@
         <v>8869</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C246" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4011,10 +3801,10 @@
         <v>8870</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C247" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4022,10 +3812,10 @@
         <v>8871</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C248" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4033,10 +3823,10 @@
         <v>8872</v>
       </c>
       <c r="B249" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C249" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4044,10 +3834,10 @@
         <v>8873</v>
       </c>
       <c r="B250" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C250" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4055,10 +3845,10 @@
         <v>8874</v>
       </c>
       <c r="B251" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C251" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4066,10 +3856,10 @@
         <v>8875</v>
       </c>
       <c r="B252" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C252" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4077,10 +3867,10 @@
         <v>8876</v>
       </c>
       <c r="B253" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C253" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -4088,10 +3878,10 @@
         <v>8877</v>
       </c>
       <c r="B254" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C254" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4099,10 +3889,10 @@
         <v>8878</v>
       </c>
       <c r="B255" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C255" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4110,10 +3900,10 @@
         <v>8879</v>
       </c>
       <c r="B256" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C256" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -4121,10 +3911,10 @@
         <v>8880</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C257" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4132,10 +3922,10 @@
         <v>8881</v>
       </c>
       <c r="B258" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C258" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -4143,10 +3933,10 @@
         <v>8882</v>
       </c>
       <c r="B259" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C259" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -4154,10 +3944,10 @@
         <v>8883</v>
       </c>
       <c r="B260" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C260" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -4165,10 +3955,10 @@
         <v>8884</v>
       </c>
       <c r="B261" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C261" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -4176,10 +3966,10 @@
         <v>8885</v>
       </c>
       <c r="B262" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C262" t="s">
-        <v>267</v>
+        <v>196</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4187,10 +3977,10 @@
         <v>8886</v>
       </c>
       <c r="B263" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C263" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -4198,10 +3988,10 @@
         <v>8887</v>
       </c>
       <c r="B264" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C264" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -4209,10 +3999,10 @@
         <v>8888</v>
       </c>
       <c r="B265" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C265" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,10 +4010,10 @@
         <v>8889</v>
       </c>
       <c r="B266" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C266" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -4231,10 +4021,10 @@
         <v>8890</v>
       </c>
       <c r="B267" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C267" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4242,10 +4032,10 @@
         <v>8891</v>
       </c>
       <c r="B268" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C268" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4253,10 +4043,10 @@
         <v>8892</v>
       </c>
       <c r="B269" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C269" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4264,10 +4054,10 @@
         <v>8893</v>
       </c>
       <c r="B270" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C270" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4275,10 +4065,10 @@
         <v>8894</v>
       </c>
       <c r="B271" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C271" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4286,10 +4076,10 @@
         <v>8895</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C272" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -4297,10 +4087,10 @@
         <v>8896</v>
       </c>
       <c r="B273" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C273" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -4308,10 +4098,10 @@
         <v>8897</v>
       </c>
       <c r="B274" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C274" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -4319,10 +4109,10 @@
         <v>8898</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C275" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -4330,10 +4120,10 @@
         <v>8899</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C276" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -4341,10 +4131,10 @@
         <v>8900</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C277" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -4352,10 +4142,10 @@
         <v>8901</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C278" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -4363,10 +4153,10 @@
         <v>8902</v>
       </c>
       <c r="B279" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C279" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -4374,10 +4164,10 @@
         <v>8903</v>
       </c>
       <c r="B280" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C280" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -4385,10 +4175,10 @@
         <v>8904</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C281" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -4396,10 +4186,10 @@
         <v>8905</v>
       </c>
       <c r="B282" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C282" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -4407,10 +4197,10 @@
         <v>8906</v>
       </c>
       <c r="B283" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C283" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -4418,10 +4208,10 @@
         <v>8907</v>
       </c>
       <c r="B284" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C284" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -4429,10 +4219,10 @@
         <v>8908</v>
       </c>
       <c r="B285" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C285" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -4440,10 +4230,10 @@
         <v>8909</v>
       </c>
       <c r="B286" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C286" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -4451,10 +4241,10 @@
         <v>8910</v>
       </c>
       <c r="B287" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C287" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -4462,10 +4252,10 @@
         <v>8911</v>
       </c>
       <c r="B288" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C288" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,10 +4263,10 @@
         <v>8912</v>
       </c>
       <c r="B289" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C289" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,10 +4274,10 @@
         <v>8913</v>
       </c>
       <c r="B290" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C290" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -4495,10 +4285,10 @@
         <v>8914</v>
       </c>
       <c r="B291" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C291" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -4506,10 +4296,10 @@
         <v>8915</v>
       </c>
       <c r="B292" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C292" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -4517,10 +4307,10 @@
         <v>8916</v>
       </c>
       <c r="B293" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C293" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -4528,10 +4318,10 @@
         <v>8917</v>
       </c>
       <c r="B294" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C294" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -4539,10 +4329,10 @@
         <v>8918</v>
       </c>
       <c r="B295" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C295" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -4550,10 +4340,10 @@
         <v>8919</v>
       </c>
       <c r="B296" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C296" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -4561,10 +4351,10 @@
         <v>8920</v>
       </c>
       <c r="B297" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C297" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -4572,10 +4362,10 @@
         <v>8921</v>
       </c>
       <c r="B298" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C298" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -4583,10 +4373,10 @@
         <v>8922</v>
       </c>
       <c r="B299" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C299" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -4594,10 +4384,10 @@
         <v>8923</v>
       </c>
       <c r="B300" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C300" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -4605,10 +4395,10 @@
         <v>8924</v>
       </c>
       <c r="B301" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C301" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -4616,10 +4406,10 @@
         <v>8925</v>
       </c>
       <c r="B302" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="C302" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -4627,10 +4417,10 @@
         <v>8926</v>
       </c>
       <c r="B303" t="s">
+        <v>168</v>
+      </c>
+      <c r="C303" t="s">
         <v>239</v>
-      </c>
-      <c r="C303" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -4638,10 +4428,10 @@
         <v>8927</v>
       </c>
       <c r="B304" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C304" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -4649,10 +4439,10 @@
         <v>8928</v>
       </c>
       <c r="B305" t="s">
+        <v>170</v>
+      </c>
+      <c r="C305" t="s">
         <v>241</v>
-      </c>
-      <c r="C305" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
